--- a/PLBART_initial.xlsx
+++ b/PLBART_initial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1951,6 +1951,135 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>def download(self, **kwargs): NEW_LINE_INDENT         """Override the original one NEW_LINE_INDENT         Ugly ugly dirty hack""" NEW_LINE_INDENT         if 'json_output' in kwargs and kwargs['json_output']: NEW_LINE_INDENT             json_output.output(self) NEW_LINE_INDENT         elif 'info_only' in kwargs and kwargs['info_only']: NEW_LINE_INDENT             if 'stream_id' in kwargs and kwargs['stream_id']: NEW_LINE_INDENT                 # Display the stream NEW_LINE_INDENT                 stream_id = kwargs['stream_id'] NEW_LINE_INDENT                 if 'index' not in kwargs: NEW_LINE_INDENT                     self.p(stream_id) NEW_LINE_INDENT                 else: NEW_LINE_INDENT                     self.p_i(stream_id) NEW_LINE_INDENT             else: NEW_LINE_INDENT                 # Display all available streams NEW_LINE_INDENT                 if 'index' not in kwargs: NEW_LINE_INDENT                     self.p([]) NEW_LINE_INDENT                 else: NEW_LINE_INDENT                     stream_id = self.streams_sorted[0]['id'] if 'id' in self.streams_sorted[0] else self.streams_sorted[0]['itag'] NEW_LINE_INDENT                     self.p_i(stream_id) NEW_LINE_INDENT  NEW_LINE_INDENT         else: NEW_LINE_INDENT             if 'stream_id' in kwargs and kwargs['stream_id']: NEW_LINE_INDENT                 # Download the stream NEW_LINE_INDENT                 stream_id = kwargs['stream_id'] NEW_LINE_INDENT             else: NEW_LINE_INDENT                 # Download stream with the best quality NEW_LINE_INDENT                 stream_id = self.streams_sorted[0]['id'] if 'id' in self.streams_sorted[0] else self.streams_sorted[0]['itag'] NEW_LINE_INDENT  NEW_LINE_INDENT             if 'index' not in kwargs: NEW_LINE_INDENT                 self.p(stream_id) NEW_LINE_INDENT             else: NEW_LINE_INDENT                 self.p_i(stream_id) NEW_LINE_INDENT  NEW_LINE_INDENT             if stream_id in self.streams: NEW_LINE_INDENT                 urls = self.streams[stream_id]['src'] NEW_LINE_INDENT                 ext = self.streams[stream_id]['container'] NEW_LINE_INDENT                 total_size = self.streams[stream_id]['size'] NEW_LINE_INDENT             else: NEW_LINE_INDENT                 urls = self.dash_streams[stream_id]['src'] NEW_LINE_INDENT                 ext = self.dash_streams[stream_id]['container'] NEW_LINE_INDENT                 total_size = self.dash_streams[stream_id]['size'] NEW_LINE_INDENT  NEW_LINE_INDENT             if not urls: NEW_LINE_INDENT                 log.wtf('[Failed] Cannot extract video source.') NEW_LINE_INDENT             # For legacy main() NEW_LINE_INDENT              NEW_LINE_INDENT             #Here's the change!! NEW_LINE_INDENT             download_url_ffmpeg(urls[0], self.title, 'mp4', output_dir=kwargs['output_dir'], merge=kwargs['merge'], stream=False) NEW_LINE_INDENT  NEW_LINE_INDENT             if not kwargs['caption']: NEW_LINE_INDENT                 print('Skipping captions.') NEW_LINE_INDENT                 return NEW_LINE_INDENT             for lang in self.caption_tracks: NEW_LINE_INDENT                 filename = '%s.%s.srt' % (get_filename(self.title), lang) NEW_LINE_INDENT                 print('Saving %s ... ' % filename, end="", flush=True) NEW_LINE_INDENT                 srt = self.caption_tracks[lang] NEW_LINE_INDENT                 with open(os.path.join(kwargs['output_dir'], filename), NEW_LINE_INDENT                           'w', encoding='utf-8') as x: NEW_LINE_INDENT                     x.write(srt) NEW_LINE_INDENT                 print('Done.')</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Override the original one
+        Ugly ugly dirty hack</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Download the latest available streams from the origin.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>defdownload(self,**kwargs: NEW_LINE_INDENT"Override theoriginalone NEW_LINE_INDENTUglyuglydirty""" NEW_LINE_INDENTif 'json_output'inkwargsandkwargs'json_output' NEW_LINE_INDENTjson_output.output(self) NEW_LINE_INDENT elif'info_only' in kwargsandkwargs'info_only:NEW_LINE_INDENTif'stream_id' inkwargsandkwargs'stream_id'NEW_LINE_INDENT # Display the stream NEW_LINE_INDENTNEW_LINE_INDENT if'index'notin kwargs:NEW_LINE_INDENTself.p(stream_id)NEW_LINE_INDENTelse: NEW_LINE_INDENT self.p_i(stream_id) NEW_LINE_INDENTelse:NEW_LINE_INDENT # Displayall available streams NEW_LINE_INDENTif 'index'not in kwargs: NEW_LINE_INDENT.p([]NEW_LINE_INDENTelse: NEW_LINE_INDENTstream_id= self.streamssorted[id]if'id' inself.streamssorted[else self.streamssorted]['itag] NEW_LINE_INDENTself.p_i(stream_id) NEW_LINE_INDENTNEW_LINE_INDENTelse: NEW_LINE_INDENTif'stream_id'in kwargsandkwargs'stream_id' NEW_LINE_INDENT# Downloadthe streamNEW_LINE_INDENT_id=kwargs'stream_id] #Downloadstreamwith thebest quality NEW_LINE_INDENTstream_id= self.streams_sorted'id]if'streamssorted]elseselfstreams_sorted'itag']NEW_LINE_INDENTNEW_LINE_INDENT'index' notin kwargs: NEW_LINE_INDENTself.p(stream_id) NEW_LINE_INDENT else: NEW_LINE_INDENT self.p_i(stream_id)NEW_LINE_INDENT NEW_LINE_INDENT ' urls=self.dashstream_id'srcself.dash.dash[streamNEW_LINE_INDENT NEW_LINE_INDENTFor legacymainmerge''Skipping captionsNEW_LINE_INDENT %getfilename(lang.dirfilename 'NEW_LINE_INDENT xwrite(</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[(0, 'def'), (2, 'download'), (3, '('), (4, 'self'), (5, ','), (7, '*'), (8, '*'), (9, 'kwargs'), (11, ':'), (12, ' '), (13, 'NEW_LINE_INDENT'), (25, '"'), (26, 'Override'), (27, ' '), (28, 'the'), (30, 'original'), (32, 'one'), (33, ' '), (34, 'NEW_LINE_INDENT'), (44, 'Ugly'), (46, 'ugly'), (48, 'dirty'), (51, '"'), (52, '"'), (53, '"'), (54, ' '), (55, 'NEW_LINE_INDENT'), (65, 'if'), (66, ' '), (67, "'"), (68, 'json'), (69, '_'), (70, 'output'), (71, "'"), (73, 'in'), (75, 'kwargs'), (77, 'and'), (79, 'kwargs'), (81, "'"), (82, 'json'), (83, '_'), (84, 'output'), (85, "'"), (88, ' '), (89, 'NEW_LINE_INDENT'), (103, 'json'), (104, '_'), (105, 'output'), (106, '.'), (107, 'output'), (108, '('), (109, 'self'), (110, ')'), (111, ' '), (112, 'NEW_LINE_INDENT'), (121, ' '), (122, 'elif'), (124, "'"), (125, 'info'), (126, '_'), (127, 'only'), (128, "'"), (129, ' '), (130, 'in'), (131, ' '), (132, 'kwargs'), (134, 'and'), (136, 'kwargs'), (138, "'"), (139, 'info'), (140, '_'), (141, 'only'), (144, ':'), (146, 'NEW_LINE_INDENT'), (160, 'if'), (162, "'"), (163, 'stream'), (164, '_'), (165, 'id'), (166, "'"), (167, ' '), (168, 'in'), (170, 'kwargs'), (172, 'and'), (174, 'kwargs'), (176, "'"), (177, 'stream'), (178, '_'), (179, 'id'), (180, "'"), (184, 'NEW_LINE_INDENT'), (201, ' '), (202, '#'), (203, ' '), (204, 'Display'), (205, ' '), (206, 'the'), (207, ' '), (208, 'stream'), (209, ' '), (210, 'NEW_LINE_INDENT'), (243, 'NEW_LINE_INDENT'), (244, ' '), (261, 'if'), (263, "'"), (264, 'index'), (265, "'"), (267, 'not'), (269, 'in'), (270, ' '), (271, 'kwargs'), (272, ':'), (274, 'NEW_LINE_INDENT'), (296, 'self'), (297, '.'), (298, 'p'), (299, '('), (300, 'stream'), (301, '_'), (302, 'id'), (303, ')'), (305, 'NEW_LINE_INDENT'), (323, 'else'), (324, ':'), (325, ' '), (326, 'NEW_LINE_INDENT'), (327, ' '), (348, 'self'), (349, '.'), (350, 'p'), (351, '_'), (352, 'i'), (353, '('), (354, 'stream'), (355, '_'), (356, 'id'), (357, ')'), (358, ' '), (359, 'NEW_LINE_INDENT'), (373, 'else'), (374, ':'), (376, 'NEW_LINE_INDENT'), (393, ' '), (394, '#'), (395, ' '), (396, 'Display'), (398, 'all'), (399, ' '), (400, 'available'), (401, ' '), (402, 'streams'), (403, ' '), (404, 'NEW_LINE_INDENT'), (422, 'if'), (423, ' '), (424, "'"), (425, 'index'), (426, "'"), (428, 'not'), (429, ' '), (430, 'in'), (431, ' '), (432, 'kwargs'), (433, ':'), (434, ' '), (435, 'NEW_LINE_INDENT'), (458, '.'), (459, 'p'), (460, '('), (461, '['), (462, ']'), (465, 'NEW_LINE_INDENT'), (483, 'else'), (484, ':'), (485, ' '), (486, 'NEW_LINE_INDENT'), (508, 'stream'), (509, '_'), (510, 'id'), (512, '='), (513, ' '), (514, 'self'), (515, '.'), (516, 'streams'), (518, 'sorted'), (519, '['), (524, 'id'), (526, ']'), (528, 'if'), (530, "'"), (531, 'id'), (532, "'"), (533, ' '), (534, 'in'), (536, 'self'), (537, '.'), (538, 'streams'), (540, 'sorted'), (541, '['), (545, 'else'), (546, ' '), (547, 'self'), (548, '.'), (549, 'streams'), (551, 'sorted'), (554, ']'), (555, '['), (556, "'"), (557, 'itag'), (559, ']'), (560, ' '), (561, 'NEW_LINE_INDENT'), (583, 'self'), (584, '.'), (585, 'p'), (586, '_'), (587, 'i'), (588, '('), (589, 'stream'), (590, '_'), (591, 'id'), (592, ')'), (593, ' '), (594, 'NEW_LINE_INDENT'), (597, 'NEW_LINE_INDENT'), (607, 'else'), (608, ':'), (609, ' '), (610, 'NEW_LINE_INDENT'), (624, 'if'), (626, "'"), (627, 'stream'), (628, '_'), (629, 'id'), (630, "'"), (632, 'in'), (633, ' '), (634, 'kwargs'), (636, 'and'), (638, 'kwargs'), (640, "'"), (641, 'stream'), (642, '_'), (643, 'id'), (644, "'"), (647, ' '), (648, 'NEW_LINE_INDENT'), (666, '#'), (667, ' '), (668, 'Download'), (670, 'the'), (671, ' '), (672, 'stream'), (674, 'NEW_LINE_INDENT'), (693, '_'), (694, 'id'), (696, '='), (698, 'kwargs'), (700, "'"), (701, 'stream'), (702, '_'), (703, 'id'), (705, ']'), (741, ' '), (742, '#'), (744, 'Download'), (746, 'stream'), (748, 'with'), (749, ' '), (750, 'the'), (752, 'best'), (753, ' '), (754, 'quality'), (755, ' '), (756, 'NEW_LINE_INDENT'), (774, 'stream'), (775, '_'), (776, 'id'), (778, '='), (779, ' '), (780, 'self'), (781, '.'), (782, 'streams'), (783, '_'), (784, 'sorted'), (789, "'"), (790, 'id'), (792, ']'), (794, 'if'), (796, "'"), (804, 'streams'), (806, 'sorted'), (809, ']'), (811, 'else'), (813, 'self'), (815, 'streams'), (816, '_'), (817, 'sorted'), (822, "'"), (823, 'itag'), (824, "'"), (825, ']'), (827, 'NEW_LINE_INDENT'), (830, 'NEW_LINE_INDENT'), (846, "'"), (847, 'index'), (848, "'"), (849, ' '), (850, 'not'), (852, 'in'), (853, ' '), (854, 'kwargs'), (855, ':'), (856, ' '), (857, 'NEW_LINE_INDENT'), (875, 'self'), (876, '.'), (877, 'p'), (878, '('), (879, 'stream'), (880, '_'), (881, 'id'), (882, ')'), (883, ' '), (884, 'NEW_LINE_INDENT'), (897, ' '), (898, 'else'), (899, ':'), (900, ' '), (901, 'NEW_LINE_INDENT'), (916, ' '), (919, 'self'), (920, '.'), (921, 'p'), (922, '_'), (923, 'i'), (924, '('), (925, 'stream'), (926, '_'), (927, 'id'), (928, ')'), (930, 'NEW_LINE_INDENT'), (932, ' '), (933, 'NEW_LINE_INDENT'), (934, ' '), (991, "'"), (1104, ' '), (1105, 'urls'), (1107, '='), (1109, 'self'), (1110, '.'), (1111, 'dash'), (1115, 'stream'), (1116, '_'), (1117, 'id'), (1120, "'"), (1121, 'src'), (1147, 'self'), (1148, '.'), (1149, 'dash'), (1188, '.'), (1189, 'dash'), (1192, '['), (1193, 'stream'), (1203, 'NEW_LINE_INDENT'), (1205, ' '), (1206, 'NEW_LINE_INDENT'), (1281, 'For'), (1282, ' '), (1283, 'legacy'), (1285, 'main'), (1385, 'merge'), (1386, "'"), (1444, "'"), (1445, 'Skipping'), (1446, ' '), (1447, 'captions'), (1452, 'NEW_LINE_INDENT'), (1530, ' '), (1531, '%'), (1534, 'get'), (1536, 'filename'), (1537, '('), (1544, 'lang'), (1573, '.'), (1659, 'dir'), (1664, 'filename'), (1700, ' '), (1703, "'"), (1715, 'NEW_LINE_INDENT'), (1716, ' '), (1737, 'x'), (1739, 'write'), (1740, '(')]</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.02398029676182711</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.07405150427645264</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.05854285441882235</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.1241881480486983</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>def download(self, **kwargs): NEW_LINE_INDENT         """Override the original one NEW_LINE_INDENT         Ugly ugly dirty hack""" NEW_LINE_INDENT         if 'json_output' in kwargs and kwargs['json_output']: NEW_LINE_INDENT             json_output.output(self) NEW_LINE_INDENT         elif 'info_only' in kwargs and kwargs['info_only']: NEW_LINE_INDENT             if 'stream_id' in kwargs and kwargs['stream_id']: NEW_LINE_INDENT                 # Display the stream NEW_LINE_INDENT                 stream_id = kwargs['stream_id'] NEW_LINE_INDENT                 if 'index' not in kwargs: NEW_LINE_INDENT                     self.p(stream_id) NEW_LINE_INDENT                 else: NEW_LINE_INDENT                     self.p_i(stream_id) NEW_LINE_INDENT             else: NEW_LINE_INDENT                 # Display all available streams NEW_LINE_INDENT                 if 'index' not in kwargs: NEW_LINE_INDENT                     self.p([]) NEW_LINE_INDENT                 else: NEW_LINE_INDENT                     stream_id = self.streams_sorted[0]['id'] if 'id' in self.streams_sorted[0] else self.streams_sorted[0]['itag'] NEW_LINE_INDENT                     self.p_i(stream_id) NEW_LINE_INDENT  NEW_LINE_INDENT         else: NEW_LINE_INDENT             if 'stream_id' in kwargs and kwargs['stream_id']: NEW_LINE_INDENT                 # Download the stream NEW_LINE_INDENT                 stream_id = kwargs['stream_id'] NEW_LINE_INDENT             else: NEW_LINE_INDENT                 # Download stream with the best quality NEW_LINE_INDENT                 stream_id = self.streams_sorted[0]['id'] if 'id' in self.streams_sorted[0] else self.streams_sorted[0]['itag'] NEW_LINE_INDENT  NEW_LINE_INDENT             if 'index' not in kwargs: NEW_LINE_INDENT                 self.p(stream_id) NEW_LINE_INDENT             else: NEW_LINE_INDENT                 self.p_i(stream_id) NEW_LINE_INDENT  NEW_LINE_INDENT             if stream_id in self.streams: NEW_LINE_INDENT                 urls = self.streams[stream_id]['src'] NEW_LINE_INDENT                 ext = self.streams[stream_id]['container'] NEW_LINE_INDENT                 total_size = self.streams[stream_id]['size'] NEW_LINE_INDENT             else: NEW_LINE_INDENT                 urls = self.dash_streams[stream_id]['src'] NEW_LINE_INDENT                 ext = self.dash_streams[stream_id]['container'] NEW_LINE_INDENT                 total_size = self.dash_streams[stream_id]['size'] NEW_LINE_INDENT  NEW_LINE_INDENT             if not urls: NEW_LINE_INDENT                 log.wtf('[Failed] Cannot extract video source.') NEW_LINE_INDENT             # For legacy main() NEW_LINE_INDENT              NEW_LINE_INDENT             #Here's the change!! NEW_LINE_INDENT             download_url_ffmpeg(urls[0], self.title, 'mp4', output_dir=kwargs['output_dir'], merge=kwargs['merge'], stream=False) NEW_LINE_INDENT  NEW_LINE_INDENT             if not kwargs['caption']: NEW_LINE_INDENT                 print('Skipping captions.') NEW_LINE_INDENT                 return NEW_LINE_INDENT             for lang in self.caption_tracks: NEW_LINE_INDENT                 filename = '%s.%s.srt' % (get_filename(self.title), lang) NEW_LINE_INDENT                 print('Saving %s ... ' % filename, end="", flush=True) NEW_LINE_INDENT                 srt = self.caption_tracks[lang] NEW_LINE_INDENT                 with open(os.path.join(kwargs['output_dir'], filename), NEW_LINE_INDENT                           'w', encoding='utf-8') as x: NEW_LINE_INDENT                     x.write(srt) NEW_LINE_INDENT                 print('Done.')</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Override the original one
+        Ugly ugly dirty hack</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Download the latest available streams from the origin.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>defdownload(self,**kwargs: NEW_LINE_INDENT"Override theoriginalone NEW_LINE_INDENTUglyuglydirty""" NEW_LINE_INDENTif 'json_output'inkwargsandkwargs'json_output' NEW_LINE_INDENTjson_output.output(self) NEW_LINE_INDENT elif'info_only' in kwargsandkwargs'info_only:NEW_LINE_INDENTif'stream_id' inkwargsandkwargs'stream_id'NEW_LINE_INDENT # Display the stream NEW_LINE_INDENTNEW_LINE_INDENT if'index'notin kwargs:NEW_LINE_INDENTself.p(stream_id)NEW_LINE_INDENTelse: NEW_LINE_INDENT self.p_i(stream_id) NEW_LINE_INDENTelse:NEW_LINE_INDENT # Displayall available streams NEW_LINE_INDENTif 'index'not in kwargs: NEW_LINE_INDENT.p([]NEW_LINE_INDENTelse: NEW_LINE_INDENTstream_id= self.streamssorted[id]if'id' inself.streamssorted[else self.streamssorted]['itag] NEW_LINE_INDENTself.p_i(stream_id) NEW_LINE_INDENTNEW_LINE_INDENTelse: NEW_LINE_INDENTif'stream_id'in kwargsandkwargs'stream_id' NEW_LINE_INDENT# Downloadthe streamNEW_LINE_INDENT_id=kwargs'stream_id] #Downloadstreamwith thebest quality NEW_LINE_INDENTstream_id= self.streams_sorted'id]if'streamssorted]elseselfstreams_sorted'itag']NEW_LINE_INDENTNEW_LINE_INDENT'index' notin kwargs: NEW_LINE_INDENTself.p(stream_id) NEW_LINE_INDENT else: NEW_LINE_INDENT self.p_i(stream_id)NEW_LINE_INDENT NEW_LINE_INDENT ' urls=self.dashstream_id'srcself.dash.dash[streamNEW_LINE_INDENT NEW_LINE_INDENTFor legacymainmerge''Skipping captionsNEW_LINE_INDENT %getfilename(lang.dirfilename 'NEW_LINE_INDENT xwrite(</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>[(0, 'def'), (2, 'download'), (3, '('), (4, 'self'), (5, ','), (7, '*'), (8, '*'), (9, 'kwargs'), (11, ':'), (12, ' '), (13, 'NEW_LINE_INDENT'), (25, '"'), (26, 'Override'), (27, ' '), (28, 'the'), (30, 'original'), (32, 'one'), (33, ' '), (34, 'NEW_LINE_INDENT'), (44, 'Ugly'), (46, 'ugly'), (48, 'dirty'), (51, '"'), (52, '"'), (53, '"'), (54, ' '), (55, 'NEW_LINE_INDENT'), (65, 'if'), (66, ' '), (67, "'"), (68, 'json'), (69, '_'), (70, 'output'), (71, "'"), (73, 'in'), (75, 'kwargs'), (77, 'and'), (79, 'kwargs'), (81, "'"), (82, 'json'), (83, '_'), (84, 'output'), (85, "'"), (88, ' '), (89, 'NEW_LINE_INDENT'), (103, 'json'), (104, '_'), (105, 'output'), (106, '.'), (107, 'output'), (108, '('), (109, 'self'), (110, ')'), (111, ' '), (112, 'NEW_LINE_INDENT'), (121, ' '), (122, 'elif'), (124, "'"), (125, 'info'), (126, '_'), (127, 'only'), (128, "'"), (129, ' '), (130, 'in'), (131, ' '), (132, 'kwargs'), (134, 'and'), (136, 'kwargs'), (138, "'"), (139, 'info'), (140, '_'), (141, 'only'), (144, ':'), (146, 'NEW_LINE_INDENT'), (160, 'if'), (162, "'"), (163, 'stream'), (164, '_'), (165, 'id'), (166, "'"), (167, ' '), (168, 'in'), (170, 'kwargs'), (172, 'and'), (174, 'kwargs'), (176, "'"), (177, 'stream'), (178, '_'), (179, 'id'), (180, "'"), (184, 'NEW_LINE_INDENT'), (201, ' '), (202, '#'), (203, ' '), (204, 'Display'), (205, ' '), (206, 'the'), (207, ' '), (208, 'stream'), (209, ' '), (210, 'NEW_LINE_INDENT'), (243, 'NEW_LINE_INDENT'), (244, ' '), (261, 'if'), (263, "'"), (264, 'index'), (265, "'"), (267, 'not'), (269, 'in'), (270, ' '), (271, 'kwargs'), (272, ':'), (274, 'NEW_LINE_INDENT'), (296, 'self'), (297, '.'), (298, 'p'), (299, '('), (300, 'stream'), (301, '_'), (302, 'id'), (303, ')'), (305, 'NEW_LINE_INDENT'), (323, 'else'), (324, ':'), (325, ' '), (326, 'NEW_LINE_INDENT'), (327, ' '), (348, 'self'), (349, '.'), (350, 'p'), (351, '_'), (352, 'i'), (353, '('), (354, 'stream'), (355, '_'), (356, 'id'), (357, ')'), (358, ' '), (359, 'NEW_LINE_INDENT'), (373, 'else'), (374, ':'), (376, 'NEW_LINE_INDENT'), (393, ' '), (394, '#'), (395, ' '), (396, 'Display'), (398, 'all'), (399, ' '), (400, 'available'), (401, ' '), (402, 'streams'), (403, ' '), (404, 'NEW_LINE_INDENT'), (422, 'if'), (423, ' '), (424, "'"), (425, 'index'), (426, "'"), (428, 'not'), (429, ' '), (430, 'in'), (431, ' '), (432, 'kwargs'), (433, ':'), (434, ' '), (435, 'NEW_LINE_INDENT'), (458, '.'), (459, 'p'), (460, '('), (461, '['), (462, ']'), (465, 'NEW_LINE_INDENT'), (483, 'else'), (484, ':'), (485, ' '), (486, 'NEW_LINE_INDENT'), (508, 'stream'), (509, '_'), (510, 'id'), (512, '='), (513, ' '), (514, 'self'), (515, '.'), (516, 'streams'), (518, 'sorted'), (519, '['), (524, 'id'), (526, ']'), (528, 'if'), (530, "'"), (531, 'id'), (532, "'"), (533, ' '), (534, 'in'), (536, 'self'), (537, '.'), (538, 'streams'), (540, 'sorted'), (541, '['), (545, 'else'), (546, ' '), (547, 'self'), (548, '.'), (549, 'streams'), (551, 'sorted'), (554, ']'), (555, '['), (556, "'"), (557, 'itag'), (559, ']'), (560, ' '), (561, 'NEW_LINE_INDENT'), (583, 'self'), (584, '.'), (585, 'p'), (586, '_'), (587, 'i'), (588, '('), (589, 'stream'), (590, '_'), (591, 'id'), (592, ')'), (593, ' '), (594, 'NEW_LINE_INDENT'), (597, 'NEW_LINE_INDENT'), (607, 'else'), (608, ':'), (609, ' '), (610, 'NEW_LINE_INDENT'), (624, 'if'), (626, "'"), (627, 'stream'), (628, '_'), (629, 'id'), (630, "'"), (632, 'in'), (633, ' '), (634, 'kwargs'), (636, 'and'), (638, 'kwargs'), (640, "'"), (641, 'stream'), (642, '_'), (643, 'id'), (644, "'"), (647, ' '), (648, 'NEW_LINE_INDENT'), (666, '#'), (667, ' '), (668, 'Download'), (670, 'the'), (671, ' '), (672, 'stream'), (674, 'NEW_LINE_INDENT'), (693, '_'), (694, 'id'), (696, '='), (698, 'kwargs'), (700, "'"), (701, 'stream'), (702, '_'), (703, 'id'), (705, ']'), (741, ' '), (742, '#'), (744, 'Download'), (746, 'stream'), (748, 'with'), (749, ' '), (750, 'the'), (752, 'best'), (753, ' '), (754, 'quality'), (755, ' '), (756, 'NEW_LINE_INDENT'), (774, 'stream'), (775, '_'), (776, 'id'), (778, '='), (779, ' '), (780, 'self'), (781, '.'), (782, 'streams'), (783, '_'), (784, 'sorted'), (789, "'"), (790, 'id'), (792, ']'), (794, 'if'), (796, "'"), (804, 'streams'), (806, 'sorted'), (809, ']'), (811, 'else'), (813, 'self'), (815, 'streams'), (816, '_'), (817, 'sorted'), (822, "'"), (823, 'itag'), (824, "'"), (825, ']'), (827, 'NEW_LINE_INDENT'), (830, 'NEW_LINE_INDENT'), (846, "'"), (847, 'index'), (848, "'"), (849, ' '), (850, 'not'), (852, 'in'), (853, ' '), (854, 'kwargs'), (855, ':'), (856, ' '), (857, 'NEW_LINE_INDENT'), (875, 'self'), (876, '.'), (877, 'p'), (878, '('), (879, 'stream'), (880, '_'), (881, 'id'), (882, ')'), (883, ' '), (884, 'NEW_LINE_INDENT'), (897, ' '), (898, 'else'), (899, ':'), (900, ' '), (901, 'NEW_LINE_INDENT'), (916, ' '), (919, 'self'), (920, '.'), (921, 'p'), (922, '_'), (923, 'i'), (924, '('), (925, 'stream'), (926, '_'), (927, 'id'), (928, ')'), (930, 'NEW_LINE_INDENT'), (932, ' '), (933, 'NEW_LINE_INDENT'), (934, ' '), (991, "'"), (1104, ' '), (1105, 'urls'), (1107, '='), (1109, 'self'), (1110, '.'), (1111, 'dash'), (1115, 'stream'), (1116, '_'), (1117, 'id'), (1120, "'"), (1121, 'src'), (1147, 'self'), (1148, '.'), (1149, 'dash'), (1188, '.'), (1189, 'dash'), (1192, '['), (1193, 'stream'), (1203, 'NEW_LINE_INDENT'), (1205, ' '), (1206, 'NEW_LINE_INDENT'), (1281, 'For'), (1282, ' '), (1283, 'legacy'), (1285, 'main'), (1385, 'merge'), (1386, "'"), (1444, "'"), (1445, 'Skipping'), (1446, ' '), (1447, 'captions'), (1452, 'NEW_LINE_INDENT'), (1530, ' '), (1531, '%'), (1534, 'get'), (1536, 'filename'), (1537, '('), (1544, 'lang'), (1573, '.'), (1659, 'dir'), (1664, 'filename'), (1700, ' '), (1703, "'"), (1715, 'NEW_LINE_INDENT'), (1716, ' '), (1737, 'x'), (1739, 'write'), (1740, '(')]</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.02398029676182711</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.07405150427645264</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.05854285441882235</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.1241881480486983</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>def download(self, **kwargs): NEW_LINE_INDENT         """Override the original one NEW_LINE_INDENT         Ugly ugly dirty hack""" NEW_LINE_INDENT         if 'json_output' in kwargs and kwargs['json_output']: NEW_LINE_INDENT             json_output.output(self) NEW_LINE_INDENT         elif 'info_only' in kwargs and kwargs['info_only']: NEW_LINE_INDENT             if 'stream_id' in kwargs and kwargs['stream_id']: NEW_LINE_INDENT                 # Display the stream NEW_LINE_INDENT                 stream_id = kwargs['stream_id'] NEW_LINE_INDENT                 if 'index' not in kwargs: NEW_LINE_INDENT                     self.p(stream_id) NEW_LINE_INDENT                 else: NEW_LINE_INDENT                     self.p_i(stream_id) NEW_LINE_INDENT             else: NEW_LINE_INDENT                 # Display all available streams NEW_LINE_INDENT                 if 'index' not in kwargs: NEW_LINE_INDENT                     self.p([]) NEW_LINE_INDENT                 else: NEW_LINE_INDENT                     stream_id = self.streams_sorted[0]['id'] if 'id' in self.streams_sorted[0] else self.streams_sorted[0]['itag'] NEW_LINE_INDENT                     self.p_i(stream_id) NEW_LINE_INDENT  NEW_LINE_INDENT         else: NEW_LINE_INDENT             if 'stream_id' in kwargs and kwargs['stream_id']: NEW_LINE_INDENT                 # Download the stream NEW_LINE_INDENT                 stream_id = kwargs['stream_id'] NEW_LINE_INDENT             else: NEW_LINE_INDENT                 # Download stream with the best quality NEW_LINE_INDENT                 stream_id = self.streams_sorted[0]['id'] if 'id' in self.streams_sorted[0] else self.streams_sorted[0]['itag'] NEW_LINE_INDENT  NEW_LINE_INDENT             if 'index' not in kwargs: NEW_LINE_INDENT                 self.p(stream_id) NEW_LINE_INDENT             else: NEW_LINE_INDENT                 self.p_i(stream_id) NEW_LINE_INDENT  NEW_LINE_INDENT             if stream_id in self.streams: NEW_LINE_INDENT                 urls = self.streams[stream_id]['src'] NEW_LINE_INDENT                 ext = self.streams[stream_id]['container'] NEW_LINE_INDENT                 total_size = self.streams[stream_id]['size'] NEW_LINE_INDENT             else: NEW_LINE_INDENT                 urls = self.dash_streams[stream_id]['src'] NEW_LINE_INDENT                 ext = self.dash_streams[stream_id]['container'] NEW_LINE_INDENT                 total_size = self.dash_streams[stream_id]['size'] NEW_LINE_INDENT  NEW_LINE_INDENT             if not urls: NEW_LINE_INDENT                 log.wtf('[Failed] Cannot extract video source.') NEW_LINE_INDENT             # For legacy main() NEW_LINE_INDENT              NEW_LINE_INDENT             #Here's the change!! NEW_LINE_INDENT             download_url_ffmpeg(urls[0], self.title, 'mp4', output_dir=kwargs['output_dir'], merge=kwargs['merge'], stream=False) NEW_LINE_INDENT  NEW_LINE_INDENT             if not kwargs['caption']: NEW_LINE_INDENT                 print('Skipping captions.') NEW_LINE_INDENT                 return NEW_LINE_INDENT             for lang in self.caption_tracks: NEW_LINE_INDENT                 filename = '%s.%s.srt' % (get_filename(self.title), lang) NEW_LINE_INDENT                 print('Saving %s ... ' % filename, end="", flush=True) NEW_LINE_INDENT                 srt = self.caption_tracks[lang] NEW_LINE_INDENT                 with open(os.path.join(kwargs['output_dir'], filename), NEW_LINE_INDENT                           'w', encoding='utf-8') as x: NEW_LINE_INDENT                     x.write(srt) NEW_LINE_INDENT                 print('Done.')</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Override the original one
+        Ugly ugly dirty hack</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Download the latest available streams from the origin.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>defdownload(self,**kwargs: NEW_LINE_INDENT"Override theoriginalone NEW_LINE_INDENTUglyuglydirty""" NEW_LINE_INDENTif 'json_output'inkwargsandkwargs'json_output' NEW_LINE_INDENTjson_output.output(self) NEW_LINE_INDENT elif'info_only' in kwargsandkwargs'info_only:NEW_LINE_INDENTif'stream_id' inkwargsandkwargs'stream_id'NEW_LINE_INDENT # Display the stream NEW_LINE_INDENTNEW_LINE_INDENT if'index'notin kwargs:NEW_LINE_INDENTself.p(stream_id)NEW_LINE_INDENTelse: NEW_LINE_INDENT self.p_i(stream_id) NEW_LINE_INDENTelse:NEW_LINE_INDENT # Displayall available streams NEW_LINE_INDENTif 'index'not in kwargs: NEW_LINE_INDENT.p([]NEW_LINE_INDENTelse: NEW_LINE_INDENTstream_id= self.streamssorted[id]if'id' inself.streamssorted[else self.streamssorted]['itag] NEW_LINE_INDENTself.p_i(stream_id) NEW_LINE_INDENTNEW_LINE_INDENTelse: NEW_LINE_INDENTif'stream_id'in kwargsandkwargs'stream_id' NEW_LINE_INDENT# Downloadthe streamNEW_LINE_INDENT_id=kwargs'stream_id] #Downloadstreamwith thebest quality NEW_LINE_INDENTstream_id= self.streams_sorted'id]if'streamssorted]elseselfstreams_sorted'itag']NEW_LINE_INDENTNEW_LINE_INDENT'index' notin kwargs: NEW_LINE_INDENTself.p(stream_id) NEW_LINE_INDENT else: NEW_LINE_INDENT self.p_i(stream_id)NEW_LINE_INDENT NEW_LINE_INDENT ' urls=self.dashstream_id'srcself.dash.dash[streamNEW_LINE_INDENT NEW_LINE_INDENTFor legacymainmerge''Skipping captionsNEW_LINE_INDENT %getfilename(lang.dirfilename 'NEW_LINE_INDENT xwrite(</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[(0, 'def'), (2, 'download'), (3, '('), (4, 'self'), (5, ','), (7, '*'), (8, '*'), (9, 'kwargs'), (11, ':'), (12, ' '), (13, 'NEW_LINE_INDENT'), (25, '"'), (26, 'Override'), (27, ' '), (28, 'the'), (30, 'original'), (32, 'one'), (33, ' '), (34, 'NEW_LINE_INDENT'), (44, 'Ugly'), (46, 'ugly'), (48, 'dirty'), (51, '"'), (52, '"'), (53, '"'), (54, ' '), (55, 'NEW_LINE_INDENT'), (65, 'if'), (66, ' '), (67, "'"), (68, 'json'), (69, '_'), (70, 'output'), (71, "'"), (73, 'in'), (75, 'kwargs'), (77, 'and'), (79, 'kwargs'), (81, "'"), (82, 'json'), (83, '_'), (84, 'output'), (85, "'"), (88, ' '), (89, 'NEW_LINE_INDENT'), (103, 'json'), (104, '_'), (105, 'output'), (106, '.'), (107, 'output'), (108, '('), (109, 'self'), (110, ')'), (111, ' '), (112, 'NEW_LINE_INDENT'), (121, ' '), (122, 'elif'), (124, "'"), (125, 'info'), (126, '_'), (127, 'only'), (128, "'"), (129, ' '), (130, 'in'), (131, ' '), (132, 'kwargs'), (134, 'and'), (136, 'kwargs'), (138, "'"), (139, 'info'), (140, '_'), (141, 'only'), (144, ':'), (146, 'NEW_LINE_INDENT'), (160, 'if'), (162, "'"), (163, 'stream'), (164, '_'), (165, 'id'), (166, "'"), (167, ' '), (168, 'in'), (170, 'kwargs'), (172, 'and'), (174, 'kwargs'), (176, "'"), (177, 'stream'), (178, '_'), (179, 'id'), (180, "'"), (184, 'NEW_LINE_INDENT'), (201, ' '), (202, '#'), (203, ' '), (204, 'Display'), (205, ' '), (206, 'the'), (207, ' '), (208, 'stream'), (209, ' '), (210, 'NEW_LINE_INDENT'), (243, 'NEW_LINE_INDENT'), (244, ' '), (261, 'if'), (263, "'"), (264, 'index'), (265, "'"), (267, 'not'), (269, 'in'), (270, ' '), (271, 'kwargs'), (272, ':'), (274, 'NEW_LINE_INDENT'), (296, 'self'), (297, '.'), (298, 'p'), (299, '('), (300, 'stream'), (301, '_'), (302, 'id'), (303, ')'), (305, 'NEW_LINE_INDENT'), (323, 'else'), (324, ':'), (325, ' '), (326, 'NEW_LINE_INDENT'), (327, ' '), (348, 'self'), (349, '.'), (350, 'p'), (351, '_'), (352, 'i'), (353, '('), (354, 'stream'), (355, '_'), (356, 'id'), (357, ')'), (358, ' '), (359, 'NEW_LINE_INDENT'), (373, 'else'), (374, ':'), (376, 'NEW_LINE_INDENT'), (393, ' '), (394, '#'), (395, ' '), (396, 'Display'), (398, 'all'), (399, ' '), (400, 'available'), (401, ' '), (402, 'streams'), (403, ' '), (404, 'NEW_LINE_INDENT'), (422, 'if'), (423, ' '), (424, "'"), (425, 'index'), (426, "'"), (428, 'not'), (429, ' '), (430, 'in'), (431, ' '), (432, 'kwargs'), (433, ':'), (434, ' '), (435, 'NEW_LINE_INDENT'), (458, '.'), (459, 'p'), (460, '('), (461, '['), (462, ']'), (465, 'NEW_LINE_INDENT'), (483, 'else'), (484, ':'), (485, ' '), (486, 'NEW_LINE_INDENT'), (508, 'stream'), (509, '_'), (510, 'id'), (512, '='), (513, ' '), (514, 'self'), (515, '.'), (516, 'streams'), (518, 'sorted'), (519, '['), (524, 'id'), (526, ']'), (528, 'if'), (530, "'"), (531, 'id'), (532, "'"), (533, ' '), (534, 'in'), (536, 'self'), (537, '.'), (538, 'streams'), (540, 'sorted'), (541, '['), (545, 'else'), (546, ' '), (547, 'self'), (548, '.'), (549, 'streams'), (551, 'sorted'), (554, ']'), (555, '['), (556, "'"), (557, 'itag'), (559, ']'), (560, ' '), (561, 'NEW_LINE_INDENT'), (583, 'self'), (584, '.'), (585, 'p'), (586, '_'), (587, 'i'), (588, '('), (589, 'stream'), (590, '_'), (591, 'id'), (592, ')'), (593, ' '), (594, 'NEW_LINE_INDENT'), (597, 'NEW_LINE_INDENT'), (607, 'else'), (608, ':'), (609, ' '), (610, 'NEW_LINE_INDENT'), (624, 'if'), (626, "'"), (627, 'stream'), (628, '_'), (629, 'id'), (630, "'"), (632, 'in'), (633, ' '), (634, 'kwargs'), (636, 'and'), (638, 'kwargs'), (640, "'"), (641, 'stream'), (642, '_'), (643, 'id'), (644, "'"), (647, ' '), (648, 'NEW_LINE_INDENT'), (666, '#'), (667, ' '), (668, 'Download'), (670, 'the'), (671, ' '), (672, 'stream'), (674, 'NEW_LINE_INDENT'), (693, '_'), (694, 'id'), (696, '='), (698, 'kwargs'), (700, "'"), (701, 'stream'), (702, '_'), (703, 'id'), (705, ']'), (741, ' '), (742, '#'), (744, 'Download'), (746, 'stream'), (748, 'with'), (749, ' '), (750, 'the'), (752, 'best'), (753, ' '), (754, 'quality'), (755, ' '), (756, 'NEW_LINE_INDENT'), (774, 'stream'), (775, '_'), (776, 'id'), (778, '='), (779, ' '), (780, 'self'), (781, '.'), (782, 'streams'), (783, '_'), (784, 'sorted'), (789, "'"), (790, 'id'), (792, ']'), (794, 'if'), (796, "'"), (804, 'streams'), (806, 'sorted'), (809, ']'), (811, 'else'), (813, 'self'), (815, 'streams'), (816, '_'), (817, 'sorted'), (822, "'"), (823, 'itag'), (824, "'"), (825, ']'), (827, 'NEW_LINE_INDENT'), (830, 'NEW_LINE_INDENT'), (846, "'"), (847, 'index'), (848, "'"), (849, ' '), (850, 'not'), (852, 'in'), (853, ' '), (854, 'kwargs'), (855, ':'), (856, ' '), (857, 'NEW_LINE_INDENT'), (875, 'self'), (876, '.'), (877, 'p'), (878, '('), (879, 'stream'), (880, '_'), (881, 'id'), (882, ')'), (883, ' '), (884, 'NEW_LINE_INDENT'), (897, ' '), (898, 'else'), (899, ':'), (900, ' '), (901, 'NEW_LINE_INDENT'), (916, ' '), (919, 'self'), (920, '.'), (921, 'p'), (922, '_'), (923, 'i'), (924, '('), (925, 'stream'), (926, '_'), (927, 'id'), (928, ')'), (930, 'NEW_LINE_INDENT'), (932, ' '), (933, 'NEW_LINE_INDENT'), (934, ' '), (991, "'"), (1104, ' '), (1105, 'urls'), (1107, '='), (1109, 'self'), (1110, '.'), (1111, 'dash'), (1115, 'stream'), (1116, '_'), (1117, 'id'), (1120, "'"), (1121, 'src'), (1147, 'self'), (1148, '.'), (1149, 'dash'), (1188, '.'), (1189, 'dash'), (1192, '['), (1193, 'stream'), (1203, 'NEW_LINE_INDENT'), (1205, ' '), (1206, 'NEW_LINE_INDENT'), (1281, 'For'), (1282, ' '), (1283, 'legacy'), (1285, 'main'), (1385, 'merge'), (1386, "'"), (1444, "'"), (1445, 'Skipping'), (1446, ' '), (1447, 'captions'), (1452, 'NEW_LINE_INDENT'), (1530, ' '), (1531, '%'), (1534, 'get'), (1536, 'filename'), (1537, '('), (1544, 'lang'), (1573, '.'), (1659, 'dir'), (1664, 'filename'), (1700, ' '), (1703, "'"), (1715, 'NEW_LINE_INDENT'), (1716, ' '), (1737, 'x'), (1739, 'write'), (1740, '(')]</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.02398029676182711</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.07405150427645264</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.05854285441882235</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.1241881480486983</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/PLBART_initial.xlsx
+++ b/PLBART_initial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2080,6 +2080,49 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>def download(self, **kwargs): NEW_LINE_INDENT         """Override the original one NEW_LINE_INDENT         Ugly ugly dirty hack""" NEW_LINE_INDENT         if 'json_output' in kwargs and kwargs['json_output']: NEW_LINE_INDENT             json_output.output(self) NEW_LINE_INDENT         elif 'info_only' in kwargs and kwargs['info_only']: NEW_LINE_INDENT             if 'stream_id' in kwargs and kwargs['stream_id']: NEW_LINE_INDENT                 # Display the stream NEW_LINE_INDENT                 stream_id = kwargs['stream_id'] NEW_LINE_INDENT                 if 'index' not in kwargs: NEW_LINE_INDENT                     self.p(stream_id) NEW_LINE_INDENT                 else: NEW_LINE_INDENT                     self.p_i(stream_id) NEW_LINE_INDENT             else: NEW_LINE_INDENT                 # Display all available streams NEW_LINE_INDENT                 if 'index' not in kwargs: NEW_LINE_INDENT                     self.p([]) NEW_LINE_INDENT                 else: NEW_LINE_INDENT                     stream_id = self.streams_sorted[0]['id'] if 'id' in self.streams_sorted[0] else self.streams_sorted[0]['itag'] NEW_LINE_INDENT                     self.p_i(stream_id) NEW_LINE_INDENT  NEW_LINE_INDENT         else: NEW_LINE_INDENT             if 'stream_id' in kwargs and kwargs['stream_id']: NEW_LINE_INDENT                 # Download the stream NEW_LINE_INDENT                 stream_id = kwargs['stream_id'] NEW_LINE_INDENT             else: NEW_LINE_INDENT                 # Download stream with the best quality NEW_LINE_INDENT                 stream_id = self.streams_sorted[0]['id'] if 'id' in self.streams_sorted[0] else self.streams_sorted[0]['itag'] NEW_LINE_INDENT  NEW_LINE_INDENT             if 'index' not in kwargs: NEW_LINE_INDENT                 self.p(stream_id) NEW_LINE_INDENT             else: NEW_LINE_INDENT                 self.p_i(stream_id) NEW_LINE_INDENT  NEW_LINE_INDENT             if stream_id in self.streams: NEW_LINE_INDENT                 urls = self.streams[stream_id]['src'] NEW_LINE_INDENT                 ext = self.streams[stream_id]['container'] NEW_LINE_INDENT                 total_size = self.streams[stream_id]['size'] NEW_LINE_INDENT             else: NEW_LINE_INDENT                 urls = self.dash_streams[stream_id]['src'] NEW_LINE_INDENT                 ext = self.dash_streams[stream_id]['container'] NEW_LINE_INDENT                 total_size = self.dash_streams[stream_id]['size'] NEW_LINE_INDENT  NEW_LINE_INDENT             if not urls: NEW_LINE_INDENT                 log.wtf('[Failed] Cannot extract video source.') NEW_LINE_INDENT             # For legacy main() NEW_LINE_INDENT              NEW_LINE_INDENT             #Here's the change!! NEW_LINE_INDENT             download_url_ffmpeg(urls[0], self.title, 'mp4', output_dir=kwargs['output_dir'], merge=kwargs['merge'], stream=False) NEW_LINE_INDENT  NEW_LINE_INDENT             if not kwargs['caption']: NEW_LINE_INDENT                 print('Skipping captions.') NEW_LINE_INDENT                 return NEW_LINE_INDENT             for lang in self.caption_tracks: NEW_LINE_INDENT                 filename = '%s.%s.srt' % (get_filename(self.title), lang) NEW_LINE_INDENT                 print('Saving %s ... ' % filename, end="", flush=True) NEW_LINE_INDENT                 srt = self.caption_tracks[lang] NEW_LINE_INDENT                 with open(os.path.join(kwargs['output_dir'], filename), NEW_LINE_INDENT                           'w', encoding='utf-8') as x: NEW_LINE_INDENT                     x.write(srt) NEW_LINE_INDENT                 print('Done.')</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Override the original one
+        Ugly ugly dirty hack</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Download the latest available streams from the origin.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>defdownload(self,**kwargs: NEW_LINE_INDENT"Override theoriginalone NEW_LINE_INDENTUglyuglydirty""" NEW_LINE_INDENTif 'json_output'inkwargsandkwargs'json_output' NEW_LINE_INDENTjson_output.output(self) NEW_LINE_INDENT elif'info_only' in kwargsandkwargs'info_only:NEW_LINE_INDENTif'stream_id' inkwargsandkwargs'stream_id'NEW_LINE_INDENT # Display the stream NEW_LINE_INDENTNEW_LINE_INDENT if'index'notin kwargs:NEW_LINE_INDENTself.p(stream_id)NEW_LINE_INDENTelse: NEW_LINE_INDENT self.p_i(stream_id) NEW_LINE_INDENTelse:NEW_LINE_INDENT # Displayall available streams NEW_LINE_INDENTif 'index'not in kwargs: NEW_LINE_INDENT.p([]NEW_LINE_INDENTelse: NEW_LINE_INDENTstream_id= self.streamssorted[id]if'id' inself.streamssorted[else self.streamssorted]['itag] NEW_LINE_INDENTself.p_i(stream_id) NEW_LINE_INDENTNEW_LINE_INDENTelse: NEW_LINE_INDENTif'stream_id'in kwargsandkwargs'stream_id' NEW_LINE_INDENT# Downloadthe streamNEW_LINE_INDENT_id=kwargs'stream_id] #Downloadstreamwith thebest quality NEW_LINE_INDENTstream_id= self.streams_sorted'id]if'streamssorted]elseselfstreams_sorted'itag']NEW_LINE_INDENTNEW_LINE_INDENT'index' notin kwargs: NEW_LINE_INDENTself.p(stream_id) NEW_LINE_INDENT else: NEW_LINE_INDENT self.p_i(stream_id)NEW_LINE_INDENT NEW_LINE_INDENT ' urls=self.dashstream_id'srcself.dash.dash[streamNEW_LINE_INDENT NEW_LINE_INDENTFor legacymainmerge''Skipping captionsNEW_LINE_INDENT %getfilename(lang.dirfilename 'NEW_LINE_INDENT xwrite(</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>[(0, 'def'), (2, 'download'), (3, '('), (4, 'self'), (5, ','), (7, '*'), (8, '*'), (9, 'kwargs'), (11, ':'), (12, ' '), (13, 'NEW_LINE_INDENT'), (25, '"'), (26, 'Override'), (27, ' '), (28, 'the'), (30, 'original'), (32, 'one'), (33, ' '), (34, 'NEW_LINE_INDENT'), (44, 'Ugly'), (46, 'ugly'), (48, 'dirty'), (51, '"'), (52, '"'), (53, '"'), (54, ' '), (55, 'NEW_LINE_INDENT'), (65, 'if'), (66, ' '), (67, "'"), (68, 'json'), (69, '_'), (70, 'output'), (71, "'"), (73, 'in'), (75, 'kwargs'), (77, 'and'), (79, 'kwargs'), (81, "'"), (82, 'json'), (83, '_'), (84, 'output'), (85, "'"), (88, ' '), (89, 'NEW_LINE_INDENT'), (103, 'json'), (104, '_'), (105, 'output'), (106, '.'), (107, 'output'), (108, '('), (109, 'self'), (110, ')'), (111, ' '), (112, 'NEW_LINE_INDENT'), (121, ' '), (122, 'elif'), (124, "'"), (125, 'info'), (126, '_'), (127, 'only'), (128, "'"), (129, ' '), (130, 'in'), (131, ' '), (132, 'kwargs'), (134, 'and'), (136, 'kwargs'), (138, "'"), (139, 'info'), (140, '_'), (141, 'only'), (144, ':'), (146, 'NEW_LINE_INDENT'), (160, 'if'), (162, "'"), (163, 'stream'), (164, '_'), (165, 'id'), (166, "'"), (167, ' '), (168, 'in'), (170, 'kwargs'), (172, 'and'), (174, 'kwargs'), (176, "'"), (177, 'stream'), (178, '_'), (179, 'id'), (180, "'"), (184, 'NEW_LINE_INDENT'), (201, ' '), (202, '#'), (203, ' '), (204, 'Display'), (205, ' '), (206, 'the'), (207, ' '), (208, 'stream'), (209, ' '), (210, 'NEW_LINE_INDENT'), (243, 'NEW_LINE_INDENT'), (244, ' '), (261, 'if'), (263, "'"), (264, 'index'), (265, "'"), (267, 'not'), (269, 'in'), (270, ' '), (271, 'kwargs'), (272, ':'), (274, 'NEW_LINE_INDENT'), (296, 'self'), (297, '.'), (298, 'p'), (299, '('), (300, 'stream'), (301, '_'), (302, 'id'), (303, ')'), (305, 'NEW_LINE_INDENT'), (323, 'else'), (324, ':'), (325, ' '), (326, 'NEW_LINE_INDENT'), (327, ' '), (348, 'self'), (349, '.'), (350, 'p'), (351, '_'), (352, 'i'), (353, '('), (354, 'stream'), (355, '_'), (356, 'id'), (357, ')'), (358, ' '), (359, 'NEW_LINE_INDENT'), (373, 'else'), (374, ':'), (376, 'NEW_LINE_INDENT'), (393, ' '), (394, '#'), (395, ' '), (396, 'Display'), (398, 'all'), (399, ' '), (400, 'available'), (401, ' '), (402, 'streams'), (403, ' '), (404, 'NEW_LINE_INDENT'), (422, 'if'), (423, ' '), (424, "'"), (425, 'index'), (426, "'"), (428, 'not'), (429, ' '), (430, 'in'), (431, ' '), (432, 'kwargs'), (433, ':'), (434, ' '), (435, 'NEW_LINE_INDENT'), (458, '.'), (459, 'p'), (460, '('), (461, '['), (462, ']'), (465, 'NEW_LINE_INDENT'), (483, 'else'), (484, ':'), (485, ' '), (486, 'NEW_LINE_INDENT'), (508, 'stream'), (509, '_'), (510, 'id'), (512, '='), (513, ' '), (514, 'self'), (515, '.'), (516, 'streams'), (518, 'sorted'), (519, '['), (524, 'id'), (526, ']'), (528, 'if'), (530, "'"), (531, 'id'), (532, "'"), (533, ' '), (534, 'in'), (536, 'self'), (537, '.'), (538, 'streams'), (540, 'sorted'), (541, '['), (545, 'else'), (546, ' '), (547, 'self'), (548, '.'), (549, 'streams'), (551, 'sorted'), (554, ']'), (555, '['), (556, "'"), (557, 'itag'), (559, ']'), (560, ' '), (561, 'NEW_LINE_INDENT'), (583, 'self'), (584, '.'), (585, 'p'), (586, '_'), (587, 'i'), (588, '('), (589, 'stream'), (590, '_'), (591, 'id'), (592, ')'), (593, ' '), (594, 'NEW_LINE_INDENT'), (597, 'NEW_LINE_INDENT'), (607, 'else'), (608, ':'), (609, ' '), (610, 'NEW_LINE_INDENT'), (624, 'if'), (626, "'"), (627, 'stream'), (628, '_'), (629, 'id'), (630, "'"), (632, 'in'), (633, ' '), (634, 'kwargs'), (636, 'and'), (638, 'kwargs'), (640, "'"), (641, 'stream'), (642, '_'), (643, 'id'), (644, "'"), (647, ' '), (648, 'NEW_LINE_INDENT'), (666, '#'), (667, ' '), (668, 'Download'), (670, 'the'), (671, ' '), (672, 'stream'), (674, 'NEW_LINE_INDENT'), (693, '_'), (694, 'id'), (696, '='), (698, 'kwargs'), (700, "'"), (701, 'stream'), (702, '_'), (703, 'id'), (705, ']'), (741, ' '), (742, '#'), (744, 'Download'), (746, 'stream'), (748, 'with'), (749, ' '), (750, 'the'), (752, 'best'), (753, ' '), (754, 'quality'), (755, ' '), (756, 'NEW_LINE_INDENT'), (774, 'stream'), (775, '_'), (776, 'id'), (778, '='), (779, ' '), (780, 'self'), (781, '.'), (782, 'streams'), (783, '_'), (784, 'sorted'), (789, "'"), (790, 'id'), (792, ']'), (794, 'if'), (796, "'"), (804, 'streams'), (806, 'sorted'), (809, ']'), (811, 'else'), (813, 'self'), (815, 'streams'), (816, '_'), (817, 'sorted'), (822, "'"), (823, 'itag'), (824, "'"), (825, ']'), (827, 'NEW_LINE_INDENT'), (830, 'NEW_LINE_INDENT'), (846, "'"), (847, 'index'), (848, "'"), (849, ' '), (850, 'not'), (852, 'in'), (853, ' '), (854, 'kwargs'), (855, ':'), (856, ' '), (857, 'NEW_LINE_INDENT'), (875, 'self'), (876, '.'), (877, 'p'), (878, '('), (879, 'stream'), (880, '_'), (881, 'id'), (882, ')'), (883, ' '), (884, 'NEW_LINE_INDENT'), (897, ' '), (898, 'else'), (899, ':'), (900, ' '), (901, 'NEW_LINE_INDENT'), (916, ' '), (919, 'self'), (920, '.'), (921, 'p'), (922, '_'), (923, 'i'), (924, '('), (925, 'stream'), (926, '_'), (927, 'id'), (928, ')'), (930, 'NEW_LINE_INDENT'), (932, ' '), (933, 'NEW_LINE_INDENT'), (934, ' '), (991, "'"), (1104, ' '), (1105, 'urls'), (1107, '='), (1109, 'self'), (1110, '.'), (1111, 'dash'), (1115, 'stream'), (1116, '_'), (1117, 'id'), (1120, "'"), (1121, 'src'), (1147, 'self'), (1148, '.'), (1149, 'dash'), (1188, '.'), (1189, 'dash'), (1192, '['), (1193, 'stream'), (1203, 'NEW_LINE_INDENT'), (1205, ' '), (1206, 'NEW_LINE_INDENT'), (1281, 'For'), (1282, ' '), (1283, 'legacy'), (1285, 'main'), (1385, 'merge'), (1386, "'"), (1444, "'"), (1445, 'Skipping'), (1446, ' '), (1447, 'captions'), (1452, 'NEW_LINE_INDENT'), (1530, ' '), (1531, '%'), (1534, 'get'), (1536, 'filename'), (1537, '('), (1544, 'lang'), (1573, '.'), (1659, 'dir'), (1664, 'filename'), (1700, ' '), (1703, "'"), (1715, 'NEW_LINE_INDENT'), (1716, ' '), (1737, 'x'), (1739, 'write'), (1740, '(')]</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.02398029676182711</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.07405150427645264</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.05854285441882235</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.1241881480486983</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/PLBART_initial.xlsx
+++ b/PLBART_initial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2123,6 +2123,49 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>def download(self, **kwargs): NEW_LINE_INDENT         """Override the original one NEW_LINE_INDENT         Ugly ugly dirty hack""" NEW_LINE_INDENT         if 'json_output' in kwargs and kwargs['json_output']: NEW_LINE_INDENT             json_output.output(self) NEW_LINE_INDENT         elif 'info_only' in kwargs and kwargs['info_only']: NEW_LINE_INDENT             if 'stream_id' in kwargs and kwargs['stream_id']: NEW_LINE_INDENT                 # Display the stream NEW_LINE_INDENT                 stream_id = kwargs['stream_id'] NEW_LINE_INDENT                 if 'index' not in kwargs: NEW_LINE_INDENT                     self.p(stream_id) NEW_LINE_INDENT                 else: NEW_LINE_INDENT                     self.p_i(stream_id) NEW_LINE_INDENT             else: NEW_LINE_INDENT                 # Display all available streams NEW_LINE_INDENT                 if 'index' not in kwargs: NEW_LINE_INDENT                     self.p([]) NEW_LINE_INDENT                 else: NEW_LINE_INDENT                     stream_id = self.streams_sorted[0]['id'] if 'id' in self.streams_sorted[0] else self.streams_sorted[0]['itag'] NEW_LINE_INDENT                     self.p_i(stream_id) NEW_LINE_INDENT  NEW_LINE_INDENT         else: NEW_LINE_INDENT             if 'stream_id' in kwargs and kwargs['stream_id']: NEW_LINE_INDENT                 # Download the stream NEW_LINE_INDENT                 stream_id = kwargs['stream_id'] NEW_LINE_INDENT             else: NEW_LINE_INDENT                 # Download stream with the best quality NEW_LINE_INDENT                 stream_id = self.streams_sorted[0]['id'] if 'id' in self.streams_sorted[0] else self.streams_sorted[0]['itag'] NEW_LINE_INDENT  NEW_LINE_INDENT             if 'index' not in kwargs: NEW_LINE_INDENT                 self.p(stream_id) NEW_LINE_INDENT             else: NEW_LINE_INDENT                 self.p_i(stream_id) NEW_LINE_INDENT  NEW_LINE_INDENT             if stream_id in self.streams: NEW_LINE_INDENT                 urls = self.streams[stream_id]['src'] NEW_LINE_INDENT                 ext = self.streams[stream_id]['container'] NEW_LINE_INDENT                 total_size = self.streams[stream_id]['size'] NEW_LINE_INDENT             else: NEW_LINE_INDENT                 urls = self.dash_streams[stream_id]['src'] NEW_LINE_INDENT                 ext = self.dash_streams[stream_id]['container'] NEW_LINE_INDENT                 total_size = self.dash_streams[stream_id]['size'] NEW_LINE_INDENT  NEW_LINE_INDENT             if not urls: NEW_LINE_INDENT                 log.wtf('[Failed] Cannot extract video source.') NEW_LINE_INDENT             # For legacy main() NEW_LINE_INDENT              NEW_LINE_INDENT             #Here's the change!! NEW_LINE_INDENT             download_url_ffmpeg(urls[0], self.title, 'mp4', output_dir=kwargs['output_dir'], merge=kwargs['merge'], stream=False) NEW_LINE_INDENT  NEW_LINE_INDENT             if not kwargs['caption']: NEW_LINE_INDENT                 print('Skipping captions.') NEW_LINE_INDENT                 return NEW_LINE_INDENT             for lang in self.caption_tracks: NEW_LINE_INDENT                 filename = '%s.%s.srt' % (get_filename(self.title), lang) NEW_LINE_INDENT                 print('Saving %s ... ' % filename, end="", flush=True) NEW_LINE_INDENT                 srt = self.caption_tracks[lang] NEW_LINE_INDENT                 with open(os.path.join(kwargs['output_dir'], filename), NEW_LINE_INDENT                           'w', encoding='utf-8') as x: NEW_LINE_INDENT                     x.write(srt) NEW_LINE_INDENT                 print('Done.')</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Override the original one
+        Ugly ugly dirty hack</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Download the latest available streams from the origin.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>defdownload(self,**kwargs: NEW_LINE_INDENT"Override theoriginalone NEW_LINE_INDENTUglyuglydirty""" NEW_LINE_INDENTif 'json_output'inkwargsandkwargs'json_output' NEW_LINE_INDENTjson_output.output(self) NEW_LINE_INDENT elif'info_only' in kwargsandkwargs'info_only:NEW_LINE_INDENTif'stream_id' inkwargsandkwargs'stream_id'NEW_LINE_INDENT # Display the stream NEW_LINE_INDENTNEW_LINE_INDENT if'index'notin kwargs:NEW_LINE_INDENTself.p(stream_id)NEW_LINE_INDENTelse: NEW_LINE_INDENT self.p_i(stream_id) NEW_LINE_INDENTelse:NEW_LINE_INDENT # Displayall available streams NEW_LINE_INDENTif 'index'not in kwargs: NEW_LINE_INDENT.p([]NEW_LINE_INDENTelse: NEW_LINE_INDENTstream_id= self.streamssorted[id]if'id' inself.streamssorted[else self.streamssorted]['itag] NEW_LINE_INDENTself.p_i(stream_id) NEW_LINE_INDENTNEW_LINE_INDENTelse: NEW_LINE_INDENTif'stream_id'in kwargsandkwargs'stream_id' NEW_LINE_INDENT# Downloadthe streamNEW_LINE_INDENT_id=kwargs'stream_id] #Downloadstreamwith thebest quality NEW_LINE_INDENTstream_id= self.streams_sorted'id]if'streamssorted]elseselfstreams_sorted'itag']NEW_LINE_INDENTNEW_LINE_INDENT'index' notin kwargs: NEW_LINE_INDENTself.p(stream_id) NEW_LINE_INDENT else: NEW_LINE_INDENT self.p_i(stream_id)NEW_LINE_INDENT NEW_LINE_INDENT ' urls=self.dashstream_id'srcself.dash.dash[streamNEW_LINE_INDENT NEW_LINE_INDENTFor legacymainmerge''Skipping captionsNEW_LINE_INDENT %getfilename(lang.dirfilename 'NEW_LINE_INDENT xwrite(</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[(0, 'def'), (2, 'download'), (3, '('), (4, 'self'), (5, ','), (7, '*'), (8, '*'), (9, 'kwargs'), (11, ':'), (12, ' '), (13, 'NEW_LINE_INDENT'), (25, '"'), (26, 'Override'), (27, ' '), (28, 'the'), (30, 'original'), (32, 'one'), (33, ' '), (34, 'NEW_LINE_INDENT'), (44, 'Ugly'), (46, 'ugly'), (48, 'dirty'), (51, '"'), (52, '"'), (53, '"'), (54, ' '), (55, 'NEW_LINE_INDENT'), (65, 'if'), (66, ' '), (67, "'"), (68, 'json'), (69, '_'), (70, 'output'), (71, "'"), (73, 'in'), (75, 'kwargs'), (77, 'and'), (79, 'kwargs'), (81, "'"), (82, 'json'), (83, '_'), (84, 'output'), (85, "'"), (88, ' '), (89, 'NEW_LINE_INDENT'), (103, 'json'), (104, '_'), (105, 'output'), (106, '.'), (107, 'output'), (108, '('), (109, 'self'), (110, ')'), (111, ' '), (112, 'NEW_LINE_INDENT'), (121, ' '), (122, 'elif'), (124, "'"), (125, 'info'), (126, '_'), (127, 'only'), (128, "'"), (129, ' '), (130, 'in'), (131, ' '), (132, 'kwargs'), (134, 'and'), (136, 'kwargs'), (138, "'"), (139, 'info'), (140, '_'), (141, 'only'), (144, ':'), (146, 'NEW_LINE_INDENT'), (160, 'if'), (162, "'"), (163, 'stream'), (164, '_'), (165, 'id'), (166, "'"), (167, ' '), (168, 'in'), (170, 'kwargs'), (172, 'and'), (174, 'kwargs'), (176, "'"), (177, 'stream'), (178, '_'), (179, 'id'), (180, "'"), (184, 'NEW_LINE_INDENT'), (201, ' '), (202, '#'), (203, ' '), (204, 'Display'), (205, ' '), (206, 'the'), (207, ' '), (208, 'stream'), (209, ' '), (210, 'NEW_LINE_INDENT'), (243, 'NEW_LINE_INDENT'), (244, ' '), (261, 'if'), (263, "'"), (264, 'index'), (265, "'"), (267, 'not'), (269, 'in'), (270, ' '), (271, 'kwargs'), (272, ':'), (274, 'NEW_LINE_INDENT'), (296, 'self'), (297, '.'), (298, 'p'), (299, '('), (300, 'stream'), (301, '_'), (302, 'id'), (303, ')'), (305, 'NEW_LINE_INDENT'), (323, 'else'), (324, ':'), (325, ' '), (326, 'NEW_LINE_INDENT'), (327, ' '), (348, 'self'), (349, '.'), (350, 'p'), (351, '_'), (352, 'i'), (353, '('), (354, 'stream'), (355, '_'), (356, 'id'), (357, ')'), (358, ' '), (359, 'NEW_LINE_INDENT'), (373, 'else'), (374, ':'), (376, 'NEW_LINE_INDENT'), (393, ' '), (394, '#'), (395, ' '), (396, 'Display'), (398, 'all'), (399, ' '), (400, 'available'), (401, ' '), (402, 'streams'), (403, ' '), (404, 'NEW_LINE_INDENT'), (422, 'if'), (423, ' '), (424, "'"), (425, 'index'), (426, "'"), (428, 'not'), (429, ' '), (430, 'in'), (431, ' '), (432, 'kwargs'), (433, ':'), (434, ' '), (435, 'NEW_LINE_INDENT'), (458, '.'), (459, 'p'), (460, '('), (461, '['), (462, ']'), (465, 'NEW_LINE_INDENT'), (483, 'else'), (484, ':'), (485, ' '), (486, 'NEW_LINE_INDENT'), (508, 'stream'), (509, '_'), (510, 'id'), (512, '='), (513, ' '), (514, 'self'), (515, '.'), (516, 'streams'), (518, 'sorted'), (519, '['), (524, 'id'), (526, ']'), (528, 'if'), (530, "'"), (531, 'id'), (532, "'"), (533, ' '), (534, 'in'), (536, 'self'), (537, '.'), (538, 'streams'), (540, 'sorted'), (541, '['), (545, 'else'), (546, ' '), (547, 'self'), (548, '.'), (549, 'streams'), (551, 'sorted'), (554, ']'), (555, '['), (556, "'"), (557, 'itag'), (559, ']'), (560, ' '), (561, 'NEW_LINE_INDENT'), (583, 'self'), (584, '.'), (585, 'p'), (586, '_'), (587, 'i'), (588, '('), (589, 'stream'), (590, '_'), (591, 'id'), (592, ')'), (593, ' '), (594, 'NEW_LINE_INDENT'), (597, 'NEW_LINE_INDENT'), (607, 'else'), (608, ':'), (609, ' '), (610, 'NEW_LINE_INDENT'), (624, 'if'), (626, "'"), (627, 'stream'), (628, '_'), (629, 'id'), (630, "'"), (632, 'in'), (633, ' '), (634, 'kwargs'), (636, 'and'), (638, 'kwargs'), (640, "'"), (641, 'stream'), (642, '_'), (643, 'id'), (644, "'"), (647, ' '), (648, 'NEW_LINE_INDENT'), (666, '#'), (667, ' '), (668, 'Download'), (670, 'the'), (671, ' '), (672, 'stream'), (674, 'NEW_LINE_INDENT'), (693, '_'), (694, 'id'), (696, '='), (698, 'kwargs'), (700, "'"), (701, 'stream'), (702, '_'), (703, 'id'), (705, ']'), (741, ' '), (742, '#'), (744, 'Download'), (746, 'stream'), (748, 'with'), (749, ' '), (750, 'the'), (752, 'best'), (753, ' '), (754, 'quality'), (755, ' '), (756, 'NEW_LINE_INDENT'), (774, 'stream'), (775, '_'), (776, 'id'), (778, '='), (779, ' '), (780, 'self'), (781, '.'), (782, 'streams'), (783, '_'), (784, 'sorted'), (789, "'"), (790, 'id'), (792, ']'), (794, 'if'), (796, "'"), (804, 'streams'), (806, 'sorted'), (809, ']'), (811, 'else'), (813, 'self'), (815, 'streams'), (816, '_'), (817, 'sorted'), (822, "'"), (823, 'itag'), (824, "'"), (825, ']'), (827, 'NEW_LINE_INDENT'), (830, 'NEW_LINE_INDENT'), (846, "'"), (847, 'index'), (848, "'"), (849, ' '), (850, 'not'), (852, 'in'), (853, ' '), (854, 'kwargs'), (855, ':'), (856, ' '), (857, 'NEW_LINE_INDENT'), (875, 'self'), (876, '.'), (877, 'p'), (878, '('), (879, 'stream'), (880, '_'), (881, 'id'), (882, ')'), (883, ' '), (884, 'NEW_LINE_INDENT'), (897, ' '), (898, 'else'), (899, ':'), (900, ' '), (901, 'NEW_LINE_INDENT'), (916, ' '), (919, 'self'), (920, '.'), (921, 'p'), (922, '_'), (923, 'i'), (924, '('), (925, 'stream'), (926, '_'), (927, 'id'), (928, ')'), (930, 'NEW_LINE_INDENT'), (932, ' '), (933, 'NEW_LINE_INDENT'), (934, ' '), (991, "'"), (1104, ' '), (1105, 'urls'), (1107, '='), (1109, 'self'), (1110, '.'), (1111, 'dash'), (1115, 'stream'), (1116, '_'), (1117, 'id'), (1120, "'"), (1121, 'src'), (1147, 'self'), (1148, '.'), (1149, 'dash'), (1188, '.'), (1189, 'dash'), (1192, '['), (1193, 'stream'), (1203, 'NEW_LINE_INDENT'), (1205, ' '), (1206, 'NEW_LINE_INDENT'), (1281, 'For'), (1282, ' '), (1283, 'legacy'), (1285, 'main'), (1385, 'merge'), (1386, "'"), (1444, "'"), (1445, 'Skipping'), (1446, ' '), (1447, 'captions'), (1452, 'NEW_LINE_INDENT'), (1530, ' '), (1531, '%'), (1534, 'get'), (1536, 'filename'), (1537, '('), (1544, 'lang'), (1573, '.'), (1659, 'dir'), (1664, 'filename'), (1700, ' '), (1703, "'"), (1715, 'NEW_LINE_INDENT'), (1716, ' '), (1737, 'x'), (1739, 'write'), (1740, '(')]</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.02398029676182711</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.07405150427645264</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.05854285441882235</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.1241881480486983</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
